--- a/Test Data/TC_51390_Verify_Backplane_Logic_For_Pro32xD_Pro32xBB.xlsx
+++ b/Test Data/TC_51390_Verify_Backplane_Logic_For_Pro32xD_Pro32xBB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCB41E3-20AF-451C-97CA-2B3CF3493849}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AC2320-6F76-4828-B933-9317B7577AE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="43">
   <si>
     <t>Color Codes</t>
   </si>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,11 +838,11 @@
       <c r="K10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>24</v>
+      <c r="L10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
         <v>37</v>
@@ -891,8 +891,8 @@
       <c r="L11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="14" t="s">
-        <v>24</v>
+      <c r="M11" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="N11" s="14" t="s">
         <v>37</v>
@@ -938,11 +938,11 @@
       <c r="K12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>24</v>
+      <c r="L12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="N12" s="14" t="s">
         <v>38</v>
@@ -954,7 +954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -991,8 +991,8 @@
       <c r="L13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="14" t="s">
-        <v>24</v>
+      <c r="M13" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>39</v>
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB965877-47D5-4195-9320-0CA4DC7672EB}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1317,11 +1317,11 @@
       <c r="K10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>24</v>
+      <c r="L10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
         <v>36</v>
